--- a/results/06-2024/contributions-comparison-06-2024.xlsx
+++ b/results/06-2024/contributions-comparison-06-2024.xlsx
@@ -632,7 +632,7 @@
         <v>0.0044</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0082</v>
+        <v>0.0084</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -667,13 +667,13 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0072</v>
+        <v>0.0056</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0058</v>
+        <v>0.0051</v>
       </c>
       <c r="S3" t="n">
         <v>0.0054</v>
@@ -817,7 +817,7 @@
         <v>0.1832</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0467</v>
+        <v>0.0468</v>
       </c>
       <c r="G6" t="n">
         <v>-0.0341</v>
@@ -882,7 +882,7 @@
         <v>-0.0177</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0669</v>
+        <v>-0.0668</v>
       </c>
       <c r="R7" t="n">
         <v>-0.029</v>
@@ -891,10 +891,10 @@
         <v>-0.0281</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0266</v>
+        <v>-0.0265</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0259</v>
+        <v>-0.0258</v>
       </c>
       <c r="V7" t="n">
         <v>-0.0039</v>
@@ -917,40 +917,40 @@
         <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3147</v>
+        <v>-0.3032</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.492</v>
+        <v>-0.4815</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2061</v>
+        <v>0.21</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1514</v>
+        <v>-0.1555</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3853</v>
+        <v>0.3784</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3518</v>
+        <v>-0.3526</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2561</v>
+        <v>-0.2549</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0607</v>
+        <v>0.0717</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.208</v>
+        <v>-0.1941</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0421</v>
+        <v>-0.0238</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1538</v>
+        <v>0.1716</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.3011</v>
+        <v>-0.2589</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -985,31 +985,31 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
-        <v>-0.5268</v>
+        <v>-0.6888</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1567</v>
+        <v>-0.3357</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1161</v>
+        <v>-0.0309</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.4452</v>
+        <v>-0.2996</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.3174</v>
+        <v>-0.1719</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1512</v>
+        <v>-0.0121</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.1881</v>
+        <v>-0.194</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.0981</v>
+        <v>-0.1227</v>
       </c>
       <c r="X9" t="n">
-        <v>-31.9821</v>
+        <v>-31.8701</v>
       </c>
     </row>
     <row r="10">
@@ -1026,37 +1026,37 @@
         <v>-0.016</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0135</v>
+        <v>-0.0136</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0221</v>
+        <v>-0.0222</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0484</v>
+        <v>-0.0485</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0708</v>
+        <v>-0.0709</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1067</v>
+        <v>0.1066</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0452</v>
+        <v>-0.0453</v>
       </c>
       <c r="K10" t="n">
-        <v>0.295</v>
+        <v>0.2949</v>
       </c>
       <c r="L10" t="n">
         <v>0.2573</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3082</v>
+        <v>0.3083</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2777</v>
+        <v>0.2779</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1541</v>
+        <v>0.1555</v>
       </c>
       <c r="P10"/>
       <c r="Q10"/>
@@ -1091,31 +1091,31 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" t="n">
-        <v>-0.0191</v>
+        <v>-0.016</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0184</v>
+        <v>-0.0271</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0143</v>
+        <v>-0.0217</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0108</v>
+        <v>-0.0166</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0067</v>
+        <v>0.0039</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0047</v>
+        <v>-0.0044</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0178</v>
+        <v>-0.0142</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0361</v>
+        <v>-0.0292</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.7925</v>
+        <v>-1.7932</v>
       </c>
     </row>
     <row r="12">
@@ -1129,40 +1129,40 @@
         <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0149</v>
+        <v>-0.0117</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1127</v>
+        <v>0.1176</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0635</v>
+        <v>0.069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1594</v>
+        <v>0.1625</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0114</v>
+        <v>0.0117</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0474</v>
+        <v>-0.0487</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1384</v>
+        <v>-0.1401</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.1728</v>
+        <v>-0.1721</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1003</v>
+        <v>-0.0964</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.2751</v>
+        <v>-0.2682</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1622</v>
+        <v>-0.1529</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.2068</v>
+        <v>-0.1984</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
@@ -1197,31 +1197,31 @@
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13" t="n">
-        <v>-0.0958</v>
+        <v>-0.1261</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1357</v>
+        <v>0.0791</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0832</v>
+        <v>0.0212</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1153</v>
+        <v>0.0459</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0269</v>
+        <v>-0.0139</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0027</v>
+        <v>-0.0273</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0072</v>
+        <v>-0.0132</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0159</v>
+        <v>0.0031</v>
       </c>
       <c r="X13" t="n">
-        <v>-5.245</v>
+        <v>-5.1268</v>
       </c>
     </row>
     <row r="14">
@@ -1235,40 +1235,40 @@
         <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4901</v>
+        <v>-0.4941</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4646</v>
+        <v>-0.47</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4198</v>
+        <v>-0.425</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7065</v>
+        <v>-0.7095</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.761</v>
+        <v>-0.762</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.382</v>
+        <v>-0.3832</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1352</v>
+        <v>-0.1377</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5622</v>
+        <v>0.5581</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6007</v>
+        <v>0.5948</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3669</v>
+        <v>0.3593</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4046</v>
+        <v>0.3952</v>
       </c>
       <c r="O14" t="n">
-        <v>0.303</v>
+        <v>0.2956</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -1303,31 +1303,31 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" t="n">
-        <v>0.1892</v>
+        <v>0.1467</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3291</v>
+        <v>0.2759</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2814</v>
+        <v>0.2413</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.1405</v>
+        <v>-0.093</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.1542</v>
+        <v>-0.1035</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.0797</v>
+        <v>-0.0674</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.0871</v>
+        <v>-0.0733</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.3232</v>
+        <v>-0.0247</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5992</v>
+        <v>7.5395</v>
       </c>
     </row>
     <row r="16">
@@ -1418,7 +1418,7 @@
         <v>-0.0224</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0153</v>
+        <v>-0.0152</v>
       </c>
       <c r="T17" t="n">
         <v>-0.0138</v>
@@ -1453,7 +1453,7 @@
         <v>0.1348</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1437</v>
+        <v>0.1438</v>
       </c>
       <c r="G18" t="n">
         <v>0.1244</v>
@@ -1480,7 +1480,7 @@
         <v>-0.0966</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.062</v>
+        <v>-0.0619</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
@@ -1515,22 +1515,22 @@
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19" t="n">
-        <v>-0.049</v>
+        <v>-0.0488</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0433</v>
+        <v>-0.0432</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0259</v>
+        <v>-0.0258</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0104</v>
+        <v>-0.0103</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.0099</v>
+        <v>-0.0098</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.0084</v>
+        <v>-0.0083</v>
       </c>
       <c r="V19" t="n">
         <v>-0.0076</v>
@@ -1586,7 +1586,7 @@
         <v>0.0098</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0112</v>
+        <v>0.0102</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
@@ -1621,13 +1621,13 @@
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
-        <v>0.0113</v>
+        <v>0.0063</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0084</v>
+        <v>0.0068</v>
       </c>
       <c r="R21" t="n">
-        <v>0.007</v>
+        <v>0.0063</v>
       </c>
       <c r="S21" t="n">
         <v>0.006</v>
@@ -1659,40 +1659,40 @@
         <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0307</v>
+        <v>-0.0263</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0238</v>
+        <v>-0.0174</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2107</v>
+        <v>0.2179</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.8781</v>
+        <v>-0.8739</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1901</v>
+        <v>-0.1896</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.84</v>
+        <v>-0.8415</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.4713</v>
+        <v>-0.4734</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.061</v>
+        <v>-0.0601</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0561</v>
+        <v>-0.0512</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0114</v>
+        <v>0.02</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.1481</v>
+        <v>-0.1365</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.0558</v>
+        <v>-0.0485</v>
       </c>
       <c r="P22"/>
       <c r="Q22"/>
@@ -1727,31 +1727,31 @@
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23" t="n">
-        <v>-0.0001</v>
+        <v>0.0371</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0278</v>
+        <v>0.0715</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0234</v>
+        <v>0.0681</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.1211</v>
+        <v>-0.0747</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0878</v>
+        <v>-0.073</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0773</v>
+        <v>-0.0725</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.1271</v>
+        <v>-0.1269</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.1179</v>
+        <v>-0.1177</v>
       </c>
       <c r="X23" t="n">
-        <v>-6.471</v>
+        <v>-6.4648</v>
       </c>
     </row>
     <row r="24">
@@ -1765,16 +1765,16 @@
         <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0634</v>
+        <v>0.0635</v>
       </c>
       <c r="E24" t="n">
-        <v>0.029</v>
+        <v>0.0291</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0267</v>
+        <v>0.0268</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0168</v>
+        <v>0.0169</v>
       </c>
       <c r="H24" t="n">
         <v>-0.0132</v>
@@ -1786,19 +1786,19 @@
         <v>-0.0122</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0114</v>
+        <v>-0.0113</v>
       </c>
       <c r="L24" t="n">
         <v>-0.01</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.1361</v>
+        <v>-0.1359</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.1126</v>
+        <v>-0.1124</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.1018</v>
+        <v>-0.1017</v>
       </c>
       <c r="P24"/>
       <c r="Q24"/>
@@ -1833,19 +1833,19 @@
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25" t="n">
-        <v>-0.0933</v>
+        <v>-0.0932</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.055</v>
+        <v>-0.0548</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.0299</v>
+        <v>-0.0298</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.0296</v>
+        <v>-0.0295</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.0234</v>
+        <v>-0.0233</v>
       </c>
       <c r="U25" t="n">
         <v>0.0002</v>
@@ -1854,7 +1854,7 @@
         <v>0.0001</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="X25" t="n">
         <v>-0.0073</v>
@@ -1871,40 +1871,40 @@
         <v>26</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3546</v>
+        <v>0.3548</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1911</v>
+        <v>0.1914</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0198</v>
+        <v>0.0202</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0667</v>
+        <v>-0.0664</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1693</v>
+        <v>-0.1691</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.167</v>
+        <v>-0.1668</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0811</v>
+        <v>-0.0809</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0639</v>
+        <v>-0.0636</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.3306</v>
+        <v>-0.3304</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.3432</v>
+        <v>-0.3429</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.1408</v>
+        <v>-0.1405</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.1049</v>
+        <v>-0.1047</v>
       </c>
       <c r="P26"/>
       <c r="Q26"/>
@@ -1939,31 +1939,31 @@
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27" t="n">
-        <v>-0.2933</v>
+        <v>-0.2926</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2637</v>
+        <v>-0.263</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1071</v>
+        <v>-0.1065</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0593</v>
+        <v>-0.0588</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0941</v>
+        <v>-0.0936</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0701</v>
+        <v>-0.0697</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.032</v>
+        <v>-0.0316</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0129</v>
+        <v>-0.0126</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0739</v>
+        <v>-0.0735</v>
       </c>
     </row>
     <row r="28">
@@ -1977,31 +1977,31 @@
         <v>26</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0698</v>
+        <v>0.0705</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.9679</v>
+        <v>-0.9669</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.0281</v>
+        <v>-1.0271</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.9516</v>
+        <v>-0.9507</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.4056</v>
+        <v>-1.405</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.9559</v>
+        <v>-0.9555</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.3929</v>
+        <v>-0.3926</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.3877</v>
+        <v>-0.3875</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.2811</v>
+        <v>-0.281</v>
       </c>
       <c r="M28" t="n">
         <v>-0.1283</v>
@@ -2083,40 +2083,40 @@
         <v>26</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.4568</v>
+        <v>-2.4278</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.9731</v>
+        <v>-2.9441</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.1497</v>
+        <v>-3.1327</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.7536</v>
+        <v>-3.7568</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.5905</v>
+        <v>-4.6037</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.2874</v>
+        <v>-2.293</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.5607</v>
+        <v>-0.565</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0638</v>
+        <v>0.0831</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.1884</v>
+        <v>-0.158</v>
       </c>
       <c r="M30" t="n">
-        <v>0.528</v>
+        <v>0.5725</v>
       </c>
       <c r="N30" t="n">
-        <v>0.268</v>
+        <v>0.3154</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.0221</v>
+        <v>0.0292</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
@@ -2151,31 +2151,31 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>-0.7649</v>
+        <v>-0.711</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.1133</v>
+        <v>-0.3727</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2202</v>
+        <v>0.1743</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.434</v>
+        <v>-0.357</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.6849</v>
+        <v>-0.5872</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.4549</v>
+        <v>-0.4066</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.4259</v>
+        <v>-0.5123</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.6203</v>
+        <v>-0.412</v>
       </c>
       <c r="X31" t="n">
-        <v>-73.4299</v>
+        <v>-73.1206</v>
       </c>
     </row>
     <row r="32">
@@ -2222,7 +2222,7 @@
         <v>27957</v>
       </c>
       <c r="O32" t="n">
-        <v>28255.9</v>
+        <v>28269.2</v>
       </c>
       <c r="P32"/>
       <c r="Q32"/>
@@ -2257,31 +2257,31 @@
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>28629.5218</v>
+        <v>28642.9977</v>
       </c>
       <c r="Q33" t="n">
-        <v>28939.608</v>
+        <v>28953.2298</v>
       </c>
       <c r="R33" t="n">
-        <v>29226.9172</v>
+        <v>29240.6742</v>
       </c>
       <c r="S33" t="n">
-        <v>29526.7137</v>
+        <v>29540.6119</v>
       </c>
       <c r="T33" t="n">
-        <v>29833.8029</v>
+        <v>29847.8456</v>
       </c>
       <c r="U33" t="n">
-        <v>30134.8981</v>
+        <v>30149.0826</v>
       </c>
       <c r="V33" t="n">
-        <v>30420.6089</v>
+        <v>30434.9279</v>
       </c>
       <c r="W33" t="n">
-        <v>30686.5398</v>
+        <v>30700.9839</v>
       </c>
       <c r="X33" t="n">
-        <v>30956.2667</v>
+        <v>30970.8378</v>
       </c>
     </row>
     <row r="34">
@@ -2295,40 +2295,40 @@
         <v>26</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4774</v>
+        <v>0.4797</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1265</v>
+        <v>0.1288</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2003</v>
+        <v>0.2012</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4489</v>
+        <v>0.4479</v>
       </c>
       <c r="H34" t="n">
-        <v>0.771</v>
+        <v>0.7694</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.2982</v>
+        <v>-0.2984</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.7267</v>
+        <v>-0.7264</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.1277</v>
+        <v>-0.1251</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.1396</v>
+        <v>-0.1365</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.3502</v>
+        <v>-0.3461</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1455</v>
+        <v>0.1493</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.113</v>
+        <v>-0.1102</v>
       </c>
       <c r="P34"/>
       <c r="Q34"/>
@@ -2363,31 +2363,31 @@
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>-0.2609</v>
+        <v>-0.2253</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0269</v>
+        <v>-0.0158</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0063</v>
+        <v>0.0114</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3112</v>
+        <v>-0.311</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.1954</v>
+        <v>-0.1953</v>
       </c>
       <c r="U35" t="n">
         <v>-0.0404</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.0914</v>
+        <v>-0.0913</v>
       </c>
       <c r="W35" t="n">
         <v>-0.0371</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.3949</v>
+        <v>-6.3919</v>
       </c>
     </row>
     <row r="36">
@@ -2401,19 +2401,19 @@
         <v>26</v>
       </c>
       <c r="D36" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="F36" t="n">
         <v>0.0048</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0049</v>
-      </c>
       <c r="G36" t="n">
-        <v>0.005</v>
+        <v>0.0051</v>
       </c>
       <c r="H36" t="n">
-        <v>0.005</v>
+        <v>0.0052</v>
       </c>
       <c r="I36" t="n">
         <v>0.0052</v>
@@ -2422,19 +2422,19 @@
         <v>0.0051</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0054</v>
+        <v>0.0051</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0054</v>
+        <v>0.005</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0056</v>
+        <v>0.005</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0056</v>
+        <v>0.0051</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0055</v>
+        <v>0.0051</v>
       </c>
       <c r="P36"/>
       <c r="Q36"/>
@@ -2507,40 +2507,40 @@
         <v>26</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.0214</v>
+        <v>-1.0203</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0464</v>
+        <v>-0.0457</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.1435</v>
+        <v>-1.1428</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.0319</v>
+        <v>-0.0316</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.0221</v>
+        <v>-0.0218</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.0328</v>
+        <v>-0.0325</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0211</v>
+        <v>-0.0207</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0207</v>
+        <v>-0.0204</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.4226</v>
+        <v>-0.4223</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0122</v>
+        <v>-0.012</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.012</v>
+        <v>-0.0118</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.1124</v>
+        <v>-0.1122</v>
       </c>
       <c r="P38"/>
       <c r="Q38"/>
@@ -2575,19 +2575,19 @@
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>-0.1051</v>
+        <v>-0.1049</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.1019</v>
+        <v>-0.1017</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.0999</v>
+        <v>-0.0998</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.097</v>
+        <v>-0.0969</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.0942</v>
+        <v>-0.0941</v>
       </c>
       <c r="U39" t="n">
         <v>-0.001</v>
@@ -2613,31 +2613,31 @@
         <v>26</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2626</v>
+        <v>-0.2618</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.0844</v>
+        <v>-1.0837</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.3675</v>
+        <v>-0.3672</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0609</v>
+        <v>-0.0607</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.9938</v>
+        <v>-0.9935</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.0297</v>
+        <v>-0.0294</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.0199</v>
+        <v>-0.0197</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.512</v>
+        <v>-0.5118</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.2476</v>
+        <v>-0.2475</v>
       </c>
       <c r="M40" t="n">
         <v>-0.0329</v>
@@ -2719,40 +2719,40 @@
         <v>26</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.8497</v>
+        <v>-0.8374</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.1259</v>
+        <v>-0.1147</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6034</v>
+        <v>-0.5992</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.7141</v>
+        <v>-0.7185</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.074</v>
+        <v>-1.0812</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4851</v>
+        <v>0.4842</v>
       </c>
       <c r="J42" t="n">
-        <v>0.8073</v>
+        <v>0.8086</v>
       </c>
       <c r="K42" t="n">
-        <v>0.3865</v>
+        <v>0.3981</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4015</v>
+        <v>0.4163</v>
       </c>
       <c r="M42" t="n">
-        <v>0.6465</v>
+        <v>0.6661</v>
       </c>
       <c r="N42" t="n">
-        <v>0.2484</v>
+        <v>0.268</v>
       </c>
       <c r="O42" t="n">
-        <v>0.1548</v>
+        <v>0.2164</v>
       </c>
       <c r="P42"/>
       <c r="Q42"/>
@@ -2787,31 +2787,31 @@
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>-0.1013</v>
+        <v>0.2111</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.1296</v>
+        <v>-0.0711</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.1107</v>
+        <v>-0.0965</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2051</v>
+        <v>0.1812</v>
       </c>
       <c r="T43" t="n">
-        <v>0.095</v>
+        <v>0.067</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0492</v>
+        <v>-0.1014</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.0019</v>
+        <v>-0.0518</v>
       </c>
       <c r="W43" t="n">
-        <v>-0.0384</v>
+        <v>-0.0934</v>
       </c>
       <c r="X43" t="n">
-        <v>-37.6925</v>
+        <v>-37.6317</v>
       </c>
     </row>
     <row r="44">
@@ -2834,10 +2834,10 @@
         <v>-0.0417</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0518</v>
+        <v>-0.0519</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.0268</v>
+        <v>-0.0269</v>
       </c>
       <c r="I44" t="n">
         <v>-0.027</v>
@@ -2849,16 +2849,16 @@
         <v>-0.0419</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0305</v>
+        <v>-0.0306</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0209</v>
+        <v>-0.021</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.027</v>
+        <v>-0.0272</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.0239</v>
+        <v>-0.0261</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
@@ -2893,31 +2893,31 @@
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>-0.0205</v>
+        <v>-0.0233</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.0137</v>
+        <v>-0.0165</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0033</v>
+        <v>0.0005</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0174</v>
+        <v>0.0145</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.0029</v>
+        <v>-0.0058</v>
       </c>
       <c r="U45" t="n">
-        <v>-0.0024</v>
+        <v>-0.0052</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0037</v>
+        <v>0.001</v>
       </c>
       <c r="W45" t="n">
-        <v>0.009</v>
+        <v>0.0063</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0755</v>
+        <v>0.0751</v>
       </c>
     </row>
     <row r="46">
@@ -2931,40 +2931,40 @@
         <v>26</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2361</v>
+        <v>0.2365</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.0481</v>
+        <v>-0.0474</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0184</v>
+        <v>-0.0176</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0863</v>
+        <v>-0.0858</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.0485</v>
+        <v>-0.0484</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.0471</v>
+        <v>-0.0473</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0801</v>
+        <v>0.0799</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0983</v>
+        <v>0.0985</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1187</v>
+        <v>0.1193</v>
       </c>
       <c r="M46" t="n">
-        <v>0.219</v>
+        <v>0.2201</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0574</v>
+        <v>0.059</v>
       </c>
       <c r="O46" t="n">
-        <v>0.1796</v>
+        <v>0.1637</v>
       </c>
       <c r="P46"/>
       <c r="Q46"/>
@@ -2999,31 +2999,31 @@
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>0.1336</v>
+        <v>0.091</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0958</v>
+        <v>0.0389</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2193</v>
+        <v>0.1597</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0475</v>
+        <v>0.0016</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0005</v>
+        <v>-0.0241</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.0133</v>
+        <v>-0.0263</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.0143</v>
+        <v>-0.0242</v>
       </c>
       <c r="W47" t="n">
-        <v>-0.0155</v>
+        <v>-0.0216</v>
       </c>
       <c r="X47" t="n">
-        <v>-1.0481</v>
+        <v>-0.9721</v>
       </c>
     </row>
     <row r="48">
@@ -3037,40 +3037,40 @@
         <v>26</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1201</v>
+        <v>-0.1223</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.0675</v>
+        <v>-0.0705</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1411</v>
+        <v>-0.1439</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1655</v>
+        <v>-0.1672</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.1584</v>
+        <v>-0.159</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0472</v>
+        <v>0.0465</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1039</v>
+        <v>0.1026</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1508</v>
+        <v>0.1486</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3228</v>
+        <v>0.3197</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1954</v>
+        <v>0.1914</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1388</v>
+        <v>0.1338</v>
       </c>
       <c r="O48" t="n">
-        <v>0.2521</v>
+        <v>0.2064</v>
       </c>
       <c r="P48"/>
       <c r="Q48"/>
@@ -3105,31 +3105,31 @@
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>0.2296</v>
+        <v>0.2058</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1318</v>
+        <v>0.1218</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1081</v>
+        <v>0.0847</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0747</v>
+        <v>0.055</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0025</v>
+        <v>-0.015</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0331</v>
+        <v>0.0165</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0455</v>
+        <v>0.0298</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0102</v>
+        <v>0.0136</v>
       </c>
       <c r="X49" t="n">
-        <v>3.939</v>
+        <v>3.9351</v>
       </c>
     </row>
     <row r="50">
@@ -3211,13 +3211,13 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51" t="n">
-        <v>0.0131</v>
+        <v>0.0081</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0077</v>
+        <v>0.0061</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0066</v>
+        <v>0.0058</v>
       </c>
       <c r="S51" t="n">
         <v>0.0064</v>
@@ -3364,7 +3364,7 @@
         <v>-0.0005</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0006</v>
+        <v>-0.0005</v>
       </c>
       <c r="H54" t="n">
         <v>-0.0007</v>
@@ -3438,7 +3438,7 @@
         <v>-0.0013</v>
       </c>
       <c r="U55" t="n">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
       <c r="V55" t="n">
         <v>-0.0003</v>
@@ -3461,22 +3461,22 @@
         <v>26</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.1561</v>
+        <v>-0.156</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2613</v>
+        <v>-0.2611</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1432</v>
+        <v>-0.143</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1396</v>
+        <v>-0.1394</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.195</v>
+        <v>-0.1949</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.0978</v>
+        <v>-0.0977</v>
       </c>
       <c r="J56" t="n">
         <v>-0.0459</v>
@@ -3488,13 +3488,13 @@
         <v>-0.0198</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.0024</v>
+        <v>-0.0023</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.003</v>
+        <v>-0.0029</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
@@ -3529,31 +3529,31 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>-0.0016</v>
+        <v>-0.0012</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>-0.0025</v>
+        <v>-0.0021</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.0034</v>
+        <v>-0.003</v>
       </c>
       <c r="T57" t="n">
-        <v>-0.0031</v>
+        <v>-0.0028</v>
       </c>
       <c r="U57" t="n">
-        <v>-0.0023</v>
+        <v>-0.0022</v>
       </c>
       <c r="V57" t="n">
-        <v>-0.0032</v>
+        <v>-0.003</v>
       </c>
       <c r="W57" t="n">
-        <v>-0.003</v>
+        <v>-0.0029</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.0615</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="58">
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="P58"/>
       <c r="Q58"/>
@@ -3635,13 +3635,13 @@
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59" t="n">
-        <v>0.0025</v>
+        <v>-0.0025</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.0001</v>
+        <v>-0.0015</v>
       </c>
       <c r="R59" t="n">
-        <v>-0.0004</v>
+        <v>-0.0011</v>
       </c>
       <c r="S59" t="n">
         <v>-0.0002</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="R63" t="n">
         <v>0.0002</v>
@@ -3885,40 +3885,40 @@
         <v>55</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>-0.0041</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>-0.0069</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>0.0139</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>0.0182</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>0.0178</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>0.0423</v>
       </c>
       <c r="P64"/>
       <c r="Q64"/>
@@ -3953,31 +3953,31 @@
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>-0.071</v>
+        <v>-0.2331</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.0062</v>
+        <v>-0.1727</v>
       </c>
       <c r="R65" t="n">
-        <v>0.0304</v>
+        <v>0.1156</v>
       </c>
       <c r="S65" t="n">
-        <v>0.0236</v>
+        <v>0.1691</v>
       </c>
       <c r="T65" t="n">
-        <v>0.0245</v>
+        <v>0.17</v>
       </c>
       <c r="U65" t="n">
-        <v>0.023</v>
+        <v>0.1621</v>
       </c>
       <c r="V65" t="n">
-        <v>0.0186</v>
+        <v>0.0127</v>
       </c>
       <c r="W65" t="n">
-        <v>0.0376</v>
+        <v>0.013</v>
       </c>
       <c r="X65" t="n">
-        <v>0.1538</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="66">
@@ -3994,37 +3994,37 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.0007</v>
+        <v>-0.0005</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.0019</v>
+        <v>-0.0017</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0063</v>
+        <v>0.0077</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
@@ -4059,31 +4059,31 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>0.0065</v>
+        <v>0.0095</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0119</v>
+        <v>0.0031</v>
       </c>
       <c r="R67" t="n">
-        <v>0.0086</v>
+        <v>0.0012</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0053</v>
+        <v>-0.0005</v>
       </c>
       <c r="T67" t="n">
-        <v>0.0018</v>
+        <v>-0.001</v>
       </c>
       <c r="U67" t="n">
+        <v>-0.0013</v>
+      </c>
+      <c r="V67" t="n">
         <v>-0.0016</v>
       </c>
-      <c r="V67" t="n">
-        <v>-0.0051</v>
-      </c>
       <c r="W67" t="n">
-        <v>-0.0087</v>
+        <v>-0.0018</v>
       </c>
       <c r="X67" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4097,40 +4097,40 @@
         <v>55</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>-0.0013</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>0.0093</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
       <c r="P68"/>
       <c r="Q68"/>
@@ -4165,31 +4165,31 @@
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>0.0321</v>
+        <v>0.0019</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0773</v>
+        <v>0.0207</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0728</v>
+        <v>0.0108</v>
       </c>
       <c r="S69" t="n">
-        <v>0.0667</v>
+        <v>-0.0027</v>
       </c>
       <c r="T69" t="n">
-        <v>0.0305</v>
+        <v>-0.0103</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.0184</v>
+        <v>-0.043</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.0258</v>
+        <v>-0.0462</v>
       </c>
       <c r="W69" t="n">
-        <v>-0.0317</v>
+        <v>-0.0445</v>
       </c>
       <c r="X69" t="n">
-        <v>-0.0369</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="70">
@@ -4203,40 +4203,40 @@
         <v>55</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>-0.0041</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>-0.0054</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>-0.0052</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>-0.0013</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-0.0041</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>-0.0059</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>-0.0075</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>-0.0094</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>-0.0074</v>
       </c>
       <c r="P70"/>
       <c r="Q70"/>
@@ -4271,31 +4271,31 @@
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>0.0104</v>
+        <v>-0.0321</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0004</v>
+        <v>-0.0528</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.0039</v>
+        <v>-0.0441</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.0807</v>
+        <v>-0.0333</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.0771</v>
+        <v>-0.0264</v>
       </c>
       <c r="U71" t="n">
-        <v>-0.0337</v>
+        <v>-0.0214</v>
       </c>
       <c r="V71" t="n">
-        <v>-0.033</v>
+        <v>-0.0192</v>
       </c>
       <c r="W71" t="n">
-        <v>-0.3514</v>
+        <v>-0.0528</v>
       </c>
       <c r="X71" t="n">
-        <v>-0.0019</v>
+        <v>-0.0616</v>
       </c>
     </row>
     <row r="72">
@@ -4383,7 +4383,7 @@
         <v>0.0002</v>
       </c>
       <c r="R73" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="S73" t="n">
         <v>0.0001</v>
@@ -4401,7 +4401,7 @@
         <v>0.0001</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="74">
@@ -4445,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P74"/>
       <c r="Q74"/>
@@ -4483,13 +4483,13 @@
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="R75" t="n">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="S75" t="n">
         <v>0.0001</v>
@@ -4504,7 +4504,7 @@
         <v>0.0001</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="P76"/>
       <c r="Q76"/>
@@ -4589,13 +4589,13 @@
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77" t="n">
-        <v>0.0018</v>
+        <v>-0.0032</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.0002</v>
+        <v>-0.0014</v>
       </c>
       <c r="R77" t="n">
-        <v>-0.0007</v>
+        <v>-0.0014</v>
       </c>
       <c r="S77" t="n">
         <v>-0.0004</v>
@@ -4627,40 +4627,40 @@
         <v>55</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>0.0043</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.0064</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>0.0072</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>0.0086</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>0.0073</v>
       </c>
       <c r="P78"/>
       <c r="Q78"/>
@@ -4695,31 +4695,31 @@
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79" t="n">
-        <v>-0.0153</v>
+        <v>0.0219</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.0143</v>
+        <v>0.0294</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.01</v>
+        <v>0.0347</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.0063</v>
+        <v>0.0401</v>
       </c>
       <c r="T79" t="n">
-        <v>0.011</v>
+        <v>0.0257</v>
       </c>
       <c r="U79" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="V79" t="n">
         <v>0.0134</v>
       </c>
-      <c r="V79" t="n">
-        <v>0.0133</v>
-      </c>
       <c r="W79" t="n">
-        <v>0.0142</v>
+        <v>0.0144</v>
       </c>
       <c r="X79" t="n">
-        <v>0.0374</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="80">
@@ -4733,16 +4733,16 @@
         <v>55</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -4757,16 +4757,16 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P80"/>
       <c r="Q80"/>
@@ -4801,16 +4801,16 @@
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="Q81" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="R81" t="n">
         <v>0.0003</v>
       </c>
-      <c r="R81" t="n">
-        <v>0.0002</v>
-      </c>
       <c r="S81" t="n">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="T81" t="n">
         <v>0.0002</v>
@@ -4839,40 +4839,40 @@
         <v>55</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="P82"/>
       <c r="Q82"/>
@@ -4907,31 +4907,31 @@
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83" t="n">
-        <v>-0.0002</v>
+        <v>0.0005</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.0011</v>
+        <v>0.0018</v>
       </c>
       <c r="R83" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="V83" t="n">
         <v>0.0006</v>
       </c>
-      <c r="S83" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="T83" t="n">
+      <c r="W83" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="X83" t="n">
         <v>0.0007</v>
-      </c>
-      <c r="U83" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="V83" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="W83" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="X83" t="n">
-        <v>0.0004</v>
       </c>
     </row>
     <row r="84">
@@ -4945,31 +4945,31 @@
         <v>55</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -5051,40 +5051,40 @@
         <v>55</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>0.0169</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>-0.0031</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>-0.0132</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>-0.0056</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>-0.0043</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>0.0193</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>0.0304</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.0007</v>
+        <v>0.0438</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.0019</v>
+        <v>0.0455</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0063</v>
+        <v>0.0576</v>
       </c>
       <c r="P86"/>
       <c r="Q86"/>
@@ -5119,31 +5119,31 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>-0.202</v>
+        <v>-0.148</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.093</v>
+        <v>-0.1663</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1262</v>
+        <v>0.0803</v>
       </c>
       <c r="S87" t="n">
-        <v>0.0361</v>
+        <v>0.1131</v>
       </c>
       <c r="T87" t="n">
-        <v>0.0082</v>
+        <v>0.1059</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.0143</v>
+        <v>0.034</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.0344</v>
+        <v>-0.1209</v>
       </c>
       <c r="W87" t="n">
-        <v>-0.3383</v>
+        <v>-0.13</v>
       </c>
       <c r="X87" t="n">
-        <v>0.2993</v>
+        <v>0.6085</v>
       </c>
     </row>
     <row r="88">
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="P88"/>
       <c r="Q88"/>
@@ -5225,31 +5225,31 @@
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89" t="n">
-        <v>136.8521</v>
+        <v>150.3279</v>
       </c>
       <c r="Q89" t="n">
-        <v>184.9802</v>
+        <v>198.602</v>
       </c>
       <c r="R89" t="n">
-        <v>202.0696</v>
+        <v>215.8267</v>
       </c>
       <c r="S89" t="n">
-        <v>212.5033</v>
+        <v>226.4015</v>
       </c>
       <c r="T89" t="n">
-        <v>207.8625</v>
+        <v>221.9052</v>
       </c>
       <c r="U89" t="n">
-        <v>192.996</v>
+        <v>207.1805</v>
       </c>
       <c r="V89" t="n">
-        <v>152.2668</v>
+        <v>166.5858</v>
       </c>
       <c r="W89" t="n">
-        <v>109.6917</v>
+        <v>124.1358</v>
       </c>
       <c r="X89" t="n">
-        <v>68.5955</v>
+        <v>83.1665</v>
       </c>
     </row>
     <row r="90">
@@ -5263,40 +5263,40 @@
         <v>55</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>-0.0017</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
       <c r="P90"/>
       <c r="Q90"/>
@@ -5331,31 +5331,31 @@
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>-0.0293</v>
+        <v>0.0063</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.0037</v>
+        <v>0.0147</v>
       </c>
       <c r="R91" t="n">
-        <v>0.0047</v>
+        <v>0.0098</v>
       </c>
       <c r="S91" t="n">
-        <v>0.0055</v>
+        <v>0.0056</v>
       </c>
       <c r="T91" t="n">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="U91" t="n">
         <v>0.0043</v>
       </c>
       <c r="V91" t="n">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="W91" t="n">
         <v>0.006</v>
       </c>
       <c r="X91" t="n">
-        <v>0.0276</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="92">
@@ -5369,19 +5369,19 @@
         <v>55</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -5390,19 +5390,19 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="P92"/>
       <c r="Q92"/>
@@ -5475,40 +5475,40 @@
         <v>55</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="P94"/>
       <c r="Q94"/>
@@ -5543,19 +5543,19 @@
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.0005</v>
+        <v>0.0007</v>
       </c>
       <c r="R95" t="n">
-        <v>0.0006</v>
+        <v>0.0008</v>
       </c>
       <c r="S95" t="n">
-        <v>0.0007</v>
+        <v>0.0008</v>
       </c>
       <c r="T95" t="n">
-        <v>0.0007</v>
+        <v>0.0008</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -5581,31 +5581,31 @@
         <v>55</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -5687,40 +5687,40 @@
         <v>55</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.0124</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>0.0112</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>-0.0044</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>-0.0072</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>0.0117</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>0.0148</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>0.0616</v>
       </c>
       <c r="P98"/>
       <c r="Q98"/>
@@ -5755,31 +5755,31 @@
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99" t="n">
-        <v>-0.1505</v>
+        <v>0.1618</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.0194</v>
+        <v>0.0779</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0261</v>
+        <v>0.0403</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0161</v>
+        <v>-0.0079</v>
       </c>
       <c r="T99" t="n">
-        <v>0.0184</v>
+        <v>-0.0096</v>
       </c>
       <c r="U99" t="n">
-        <v>0.0236</v>
+        <v>-0.0286</v>
       </c>
       <c r="V99" t="n">
-        <v>0.0246</v>
+        <v>-0.0253</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0341</v>
+        <v>-0.0209</v>
       </c>
       <c r="X99" t="n">
-        <v>0.1628</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="100">
@@ -5817,16 +5817,16 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
       <c r="P100"/>
       <c r="Q100"/>
@@ -5861,31 +5861,31 @@
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101" t="n">
-        <v>-0.004</v>
+        <v>-0.0068</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.0049</v>
+        <v>-0.0078</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.0049</v>
+        <v>-0.0078</v>
       </c>
       <c r="S101" t="n">
-        <v>-0.0054</v>
+        <v>-0.0082</v>
       </c>
       <c r="T101" t="n">
-        <v>-0.0052</v>
+        <v>-0.0081</v>
       </c>
       <c r="U101" t="n">
-        <v>-0.0049</v>
+        <v>-0.0077</v>
       </c>
       <c r="V101" t="n">
-        <v>-0.004</v>
+        <v>-0.0068</v>
       </c>
       <c r="W101" t="n">
-        <v>-0.0037</v>
+        <v>-0.0064</v>
       </c>
       <c r="X101" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="102">
@@ -5899,40 +5899,40 @@
         <v>55</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>-0.0159</v>
       </c>
       <c r="P102"/>
       <c r="Q102"/>
@@ -5967,31 +5967,31 @@
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103" t="n">
-        <v>0.0184</v>
+        <v>-0.0242</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.0392</v>
+        <v>-0.0177</v>
       </c>
       <c r="R103" t="n">
-        <v>0.0388</v>
+        <v>-0.0208</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0402</v>
+        <v>-0.0057</v>
       </c>
       <c r="T103" t="n">
-        <v>0.0232</v>
+        <v>-0.0005</v>
       </c>
       <c r="U103" t="n">
-        <v>0.0032</v>
+        <v>-0.0098</v>
       </c>
       <c r="V103" t="n">
-        <v>-0.0056</v>
+        <v>-0.0154</v>
       </c>
       <c r="W103" t="n">
-        <v>-0.0141</v>
+        <v>-0.0201</v>
       </c>
       <c r="X103" t="n">
-        <v>-0.0368</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="104">
@@ -6005,40 +6005,40 @@
         <v>55</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>-0.0028</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>-0.0017</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>-0.0006</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>-0.0032</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>-0.0051</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>-0.0457</v>
       </c>
       <c r="P104"/>
       <c r="Q104"/>
@@ -6073,31 +6073,31 @@
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105" t="n">
-        <v>-0.0267</v>
+        <v>-0.0504</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.0432</v>
+        <v>-0.0532</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.0325</v>
+        <v>-0.056</v>
       </c>
       <c r="S105" t="n">
-        <v>-0.0239</v>
+        <v>-0.0437</v>
       </c>
       <c r="T105" t="n">
-        <v>-0.0217</v>
+        <v>-0.0393</v>
       </c>
       <c r="U105" t="n">
-        <v>-0.0211</v>
+        <v>-0.0377</v>
       </c>
       <c r="V105" t="n">
-        <v>-0.0191</v>
+        <v>-0.0348</v>
       </c>
       <c r="W105" t="n">
-        <v>-0.0164</v>
+        <v>-0.0131</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0154</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="106">
@@ -6179,13 +6179,13 @@
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107" t="n">
-        <v>0.0043</v>
+        <v>-0.0007</v>
       </c>
       <c r="Q107" t="n">
-        <v>-0.0003</v>
+        <v>-0.0019</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.0004</v>
+        <v>-0.0012</v>
       </c>
       <c r="S107" t="n">
         <v>-0.0002</v>
@@ -6429,19 +6429,19 @@
         <v>55</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -6456,13 +6456,13 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P112"/>
       <c r="Q112"/>
@@ -6497,28 +6497,28 @@
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113" t="n">
-        <v>-0.0002</v>
+        <v>0.0002</v>
       </c>
       <c r="Q113" t="n">
-        <v>-0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.0001</v>
+        <v>0.0004</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="U113" t="n">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="V113" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="X113" t="n">
         <v>0.0004</v>
